--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB090.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB090.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478EE6F-446F-43AF-9B81-3C56972833E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50420F99-544C-4E5C-902B-118DAE4666D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="SP" sheetId="9" r:id="rId3"/>
     <sheet name="條件" sheetId="10" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$22</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -296,10 +293,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"90":擔保品關聯檔資料</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>擔保品關聯檔資料檔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -454,6 +447,10 @@
   </si>
   <si>
     <t xml:space="preserve">    ORDER BY M."CustId", M."FacmNo", F."ClCode1", F."ClCode2", F."ClNo"</t>
+  </si>
+  <si>
+    <t>90:擔保品關聯檔資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -766,6 +763,39 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -777,39 +807,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -830,25 +827,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="條件"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,7 +1156,7 @@
       <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1188,23 +1166,23 @@
     <col min="3" max="3" width="28.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="8" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.44140625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="58.33203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="58.33203125" style="36" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="10"/>
@@ -1214,8 +1192,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1230,12 +1208,12 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -1246,10 +1224,10 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -1260,10 +1238,10 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="40"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -1273,10 +1251,10 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="40"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1286,10 +1264,10 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="40"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1317,7 +1295,7 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="17" t="s">
@@ -1326,8 +1304,8 @@
       <c r="I8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>75</v>
+      <c r="J8" s="26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1347,10 +1325,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38" t="s">
-        <v>76</v>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1370,17 +1348,17 @@
         <v>2</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="33">
         <v>1</v>
       </c>
-      <c r="J10" s="38" t="s">
-        <v>77</v>
+      <c r="J10" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1400,17 +1378,17 @@
         <v>3</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <v>2</v>
       </c>
-      <c r="J11" s="38" t="s">
-        <v>78</v>
+      <c r="J11" s="34" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1430,17 +1408,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="33">
         <v>3</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>79</v>
+      <c r="J12" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1448,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>41</v>
@@ -1460,17 +1438,17 @@
         <v>2</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <v>4</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>80</v>
+      <c r="J13" s="34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1490,17 +1468,17 @@
         <v>10</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="33">
         <v>5</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>83</v>
+      <c r="J14" s="34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1508,10 +1486,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
@@ -1520,17 +1498,17 @@
         <v>50</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="37">
+      <c r="I15" s="33">
         <v>6</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>81</v>
+      <c r="J15" s="34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1538,10 +1516,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1550,17 +1528,17 @@
         <v>50</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="37">
+      <c r="G16" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="33">
         <v>7</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>82</v>
+      <c r="J16" s="34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1568,10 +1546,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
@@ -1580,17 +1558,17 @@
         <v>2</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="36" t="s">
+      <c r="G17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="33">
         <v>8</v>
       </c>
-      <c r="J17" s="38" t="s">
-        <v>80</v>
+      <c r="J17" s="34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1610,17 +1588,17 @@
         <v>5</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="36" t="s">
+      <c r="G18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="33">
         <v>9</v>
       </c>
-      <c r="J18" s="38" t="s">
-        <v>84</v>
+      <c r="J18" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1640,10 +1618,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="39"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
@@ -1662,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="39"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
@@ -1684,10 +1662,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="39"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
@@ -1706,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="39"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
@@ -1863,13 +1841,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1888,108 +1866,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="33" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="136.109375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>85</v>
+      <c r="A20" s="29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
